--- a/biology/Médecine/Alexandre_Tikhonov_(médecin)/Alexandre_Tikhonov_(médecin).xlsx
+++ b/biology/Médecine/Alexandre_Tikhonov_(médecin)/Alexandre_Tikhonov_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alexandre_Tikhonov_(m%C3%A9decin)</t>
+          <t>Alexandre_Tikhonov_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre Ivanovich Tikhonov (en russe : Александр Иванович Тихонов), né le 11 septembre 1938 à Kharkov en Union soviétique, est un scientifique russe, docteur en sciences, professeur émérite à l'Université nationale de pharmacie de Kharkiv. Travailleur émérite de la science et de la technologie de l'Ukraine (1990), Président de l'Association Ukrainienne de l'apithérapie, Membre de l'Académie ukrainienne des sciences à partir de 2006.
 Lauréat du Prix d'Etat de l'Ukraine en science et de la technologie en 2013.
